--- a/topic-files/Manual_Topic_Evaluation.xlsx
+++ b/topic-files/Manual_Topic_Evaluation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktuoh\Documents\School\MCS-DS\CS_410_Text_Info_Systems\Project\CourseProject\topic-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF98D27-64CB-4F9E-A2DD-3F80B4B82BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727457C3-E630-4923-90F0-E2AF869D0F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="960" windowWidth="25200" windowHeight="15135" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
+    <sheet name="Manual Topic Evaluation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
   <si>
     <t>Topic</t>
   </si>
@@ -168,9 +169,6 @@
     <t>https://github.com/adeetikaushal/CourseProject</t>
   </si>
   <si>
-    <t>Best matching topic tags</t>
-  </si>
-  <si>
     <t>mixture, model</t>
   </si>
   <si>
@@ -258,12 +256,6 @@
     <t>search, system</t>
   </si>
   <si>
-    <t>The topic seems to be a mix of project themes, tools and results.</t>
-  </si>
-  <si>
-    <t>Where does "video" come from?</t>
-  </si>
-  <si>
     <t>['stock', 'sentiment', 'model', 'rating', 'news', 'text', 'analysis', 'system', 'market', 'classification', 'classifier', 'twitter', 'dataset', 'analyst', 'set']</t>
   </si>
   <si>
@@ -363,21 +355,58 @@
     <t>twitter_, sarcasm, not_sarcasm, classification</t>
   </si>
   <si>
-    <t>Does topic apply exclusively to sarcasm detection?</t>
-  </si>
-  <si>
     <t>Neural networks</t>
   </si>
   <si>
     <t>https://github.com/subhasishb-coder/CourseProject</t>
+  </si>
+  <si>
+    <t>The topic seems to be a mix of project themes, tools and results. Where does "video" come from?</t>
+  </si>
+  <si>
+    <t>Does topic apply exclusively to sarcasm detection? If yes, this is the best-defined topic</t>
+  </si>
+  <si>
+    <t>Best Matching Topic Tags</t>
+  </si>
+  <si>
+    <t>What This Document Contains</t>
+  </si>
+  <si>
+    <t>This document takes discovered topics and tags for CS 410 projects and compares them to the "ground truth" topics for matching example projects.</t>
+  </si>
+  <si>
+    <t>Please rate how closely the discovered topics/tags match the ground-truth topics for these projects.</t>
+  </si>
+  <si>
+    <t>Discovered topics, tags, and matching CS 410 projects taken from: https://github.com/kreonjr/CourseProject/tree/main/python/text_mining/AlgOutput.tsv</t>
+  </si>
+  <si>
+    <t>Projects ultimately selected from: https://github.com/CS410Assignments/CourseProject/network/members</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -393,17 +422,130 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -412,13 +554,104 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,769 +967,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4783DB-5303-4013-8423-12F42A10DF39}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E96CE-B931-4949-8E91-1560B9070820}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="F6" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="H7" s="17">
         <v>4</v>
       </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
       <c r="F8" t="s">
         <v>24</v>
       </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
       <c r="F9" t="s">
         <v>19</v>
       </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="E11" t="s">
+      <c r="A11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="H11" s="16">
         <v>2</v>
       </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="F13" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="H14" s="17">
         <v>4</v>
       </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>36</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="5"/>
       <c r="F16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="E18" t="s">
-        <v>52</v>
+      <c r="G17" s="4"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="16">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="D20">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33">
         <v>30</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="E22" t="s">
-        <v>53</v>
+      <c r="G21" s="4"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22">
+        <v>54</v>
+      </c>
+      <c r="H22" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5"/>
       <c r="F23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>56</v>
+      <c r="H23" s="17"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="32"/>
+      <c r="D25" s="33">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
-        <v>57</v>
+      <c r="E25" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25">
+        <v>59</v>
+      </c>
+      <c r="H25" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>28</v>
       </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5"/>
       <c r="F26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="E28" t="s">
-        <v>61</v>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="5"/>
       <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="33">
+        <v>136</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>136</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31">
+      <c r="H31" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="5"/>
       <c r="F32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34">
+        <v>72</v>
+      </c>
+      <c r="H34" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>76</v>
+      <c r="H35" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="D37">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33">
         <v>9</v>
       </c>
-      <c r="E37" t="s">
-        <v>80</v>
+      <c r="E37" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37">
+        <v>81</v>
+      </c>
+      <c r="H37" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5"/>
       <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>85</v>
       </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40">
+      <c r="H40" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="5"/>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="F42" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43">
+        <v>74</v>
+      </c>
+      <c r="H43" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45">
+        <v>92</v>
+      </c>
+      <c r="H45" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5"/>
       <c r="F46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5"/>
       <c r="F47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="5"/>
       <c r="F48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="D50">
+      <c r="C50" s="32"/>
+      <c r="D50" s="33">
         <v>79</v>
       </c>
-      <c r="E50" t="s">
-        <v>99</v>
+      <c r="E50" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50">
+        <v>98</v>
+      </c>
+      <c r="H50" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="5"/>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="12">
+        <v>55</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="17">
+        <v>4</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55">
-        <v>55</v>
-      </c>
-      <c r="E55" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" t="s">
-        <v>106</v>
-      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="5"/>
       <c r="F56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="5"/>
       <c r="F57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
       <c r="B58" t="s">
         <v>22</v>
       </c>
-      <c r="F58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="E59" s="1" t="s">
-        <v>111</v>
+      <c r="C58" s="1"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H59">
+        <v>74</v>
+      </c>
+      <c r="H59" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="8"/>
       <c r="F61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="8"/>
       <c r="F62" t="s">
         <v>22</v>
       </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="116">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A43:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A62"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C30"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:A19"/>
@@ -1507,6 +2229,22 @@
     <hyperlink ref="E7" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>
     <hyperlink ref="E43" r:id="rId2" xr:uid="{33A668B2-93DC-4D96-9AEB-8CC4723E0AA2}"/>
     <hyperlink ref="E59" r:id="rId3" xr:uid="{CE54DF03-47CC-477C-8F28-3406726C49AE}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{D8BC0EA9-C7D8-43C3-B3D7-F9636EB4DE4A}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{65DEFA8F-6701-4027-B39B-AAA7071E2698}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{9B31F480-84ED-417E-ADAA-27F094EB08B2}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{0EB9EDE8-097B-4BC1-8239-36C644FEB7D6}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{AF191651-11C8-47EB-89F9-35CFC0CA03B6}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{35F6A951-4359-4404-8A7A-B1163FBAD98C}"/>
+    <hyperlink ref="E25" r:id="rId10" xr:uid="{B5B6E062-7BB5-4AE6-B3C7-2F30D607F9FE}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{BD0A7489-39C8-4B13-B61E-38BC37CECA90}"/>
+    <hyperlink ref="E31" r:id="rId12" xr:uid="{EF645337-26CA-4DB6-B0AC-7931DB993032}"/>
+    <hyperlink ref="E34" r:id="rId13" xr:uid="{329FC1AE-2F42-4A5B-AD87-2337E356D3C3}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{7E99CC54-D75E-4363-98D1-C65FC7FE751F}"/>
+    <hyperlink ref="E40" r:id="rId15" xr:uid="{CC7965C8-232B-4A0E-B737-71C8A661D724}"/>
+    <hyperlink ref="E45" r:id="rId16" xr:uid="{D011B71F-6F5F-4CB5-BE7C-F117D91BF47A}"/>
+    <hyperlink ref="E50" r:id="rId17" xr:uid="{AADBA1E9-CAB1-4312-808E-77728F17AAB2}"/>
+    <hyperlink ref="E52" r:id="rId18" xr:uid="{E936ADBD-DB92-4171-A365-F6CDE64C9E50}"/>
+    <hyperlink ref="E55" r:id="rId19" xr:uid="{CB96A09B-FCF4-40F0-B992-F6886FE5C8F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/topic-files/Manual_Topic_Evaluation.xlsx
+++ b/topic-files/Manual_Topic_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktuoh\Documents\School\MCS-DS\CS_410_Text_Info_Systems\Project\CourseProject\topic-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creon/Desktop/UIUC/CS410/Team Project/CourseProject/topic-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727457C3-E630-4923-90F0-E2AF869D0F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBD0A5-F79E-4A48-8D5D-6B9B504C16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45980" windowHeight="25360" activeTab="1" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -559,39 +559,88 @@
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,57 +650,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,29 +974,29 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -1011,88 +1011,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E96CE-B931-4949-8E91-1560B9070820}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="14">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -1101,38 +1101,40 @@
       <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -1141,40 +1143,42 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33">
+      <c r="C7" s="17"/>
+      <c r="D7" s="13">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="30" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
@@ -1183,63 +1187,65 @@
       <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="25">
         <v>4</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="30"/>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="30"/>
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
@@ -1248,50 +1254,52 @@
       <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="26">
         <v>2</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="30"/>
       <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33">
+      <c r="C14" s="17"/>
+      <c r="D14" s="13">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F14" t="s">
@@ -1300,66 +1308,68 @@
       <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="25">
         <v>4</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="30"/>
       <c r="F15" t="s">
         <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="30"/>
       <c r="F16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="29" t="s">
         <v>51</v>
       </c>
       <c r="F18" t="s">
@@ -1368,72 +1378,76 @@
       <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="26">
         <v>3</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27" t="s">
+      <c r="I18" s="23"/>
+      <c r="J18" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33">
+      <c r="C20" s="17"/>
+      <c r="D20" s="13">
         <v>30</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="25">
         <v>1</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="29" t="s">
         <v>52</v>
       </c>
       <c r="F22" t="s">
@@ -1442,50 +1456,52 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="26">
         <v>2</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="5"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="30"/>
       <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33">
+      <c r="C25" s="17"/>
+      <c r="D25" s="13">
         <v>16</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="30" t="s">
         <v>56</v>
       </c>
       <c r="F25" t="s">
@@ -1494,146 +1510,152 @@
       <c r="G25" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="25">
         <v>2</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="30"/>
       <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="4" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="26">
         <v>1</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="5"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="30"/>
       <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="27" t="s">
+      <c r="H29" s="25"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="13">
         <v>136</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="25">
         <v>1</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
       <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="5"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="30"/>
       <c r="F32" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="7" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="29" t="s">
         <v>68</v>
       </c>
       <c r="F34" t="s">
@@ -1642,50 +1664,52 @@
       <c r="G34" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="26">
         <v>2</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="5"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="30"/>
       <c r="F35" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="27" t="s">
+      <c r="H35" s="25"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33">
+      <c r="C37" s="17"/>
+      <c r="D37" s="13">
         <v>9</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F37" t="s">
@@ -1694,51 +1718,53 @@
       <c r="G37" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="25">
         <v>3</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="5"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="30"/>
       <c r="F38" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="4" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
       <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="7" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="29" t="s">
         <v>82</v>
       </c>
       <c r="F40" t="s">
@@ -1747,88 +1773,92 @@
       <c r="G40" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="26">
         <v>4</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="5"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="30"/>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="27" t="s">
+      <c r="H41" s="25"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33">
+      <c r="C43" s="17"/>
+      <c r="D43" s="13">
         <v>25</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="30" t="s">
         <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="25">
         <v>1</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="4" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
       <c r="B45" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="7" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F45" t="s">
@@ -1837,74 +1867,76 @@
       <c r="G45" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="26">
         <v>4</v>
       </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="5"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="30"/>
       <c r="F46" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="5"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="30"/>
       <c r="F47" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="5"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="30"/>
       <c r="F48" t="s">
         <v>80</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="27" t="s">
+      <c r="H48" s="25"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33">
+      <c r="C50" s="17"/>
+      <c r="D50" s="13">
         <v>79</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="30" t="s">
         <v>96</v>
       </c>
       <c r="F50" t="s">
@@ -1913,87 +1945,91 @@
       <c r="G50" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="25">
         <v>4</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
       <c r="B51" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="4" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="7" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="29" t="s">
         <v>99</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="26">
         <v>1</v>
       </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="5"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="30"/>
       <c r="F53" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="27" t="s">
+      <c r="H53" s="25"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="G54" s="7"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="16">
         <v>55</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="30" t="s">
         <v>104</v>
       </c>
       <c r="F55" t="s">
@@ -2002,163 +2038,146 @@
       <c r="G55" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="25">
         <v>4</v>
       </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
       <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="5"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="30"/>
       <c r="F56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
       <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="30"/>
       <c r="F57" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
       <c r="B58" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="4" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="8" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="33" t="s">
         <v>107</v>
       </c>
       <c r="F59" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="25">
         <v>5</v>
       </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="8"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="33"/>
       <c r="F60" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="8"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="33"/>
       <c r="F61" t="s">
         <v>76</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="8"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="33"/>
       <c r="F62" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
     <mergeCell ref="H59:H62"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -2181,49 +2200,70 @@
     <mergeCell ref="H31:H33"/>
     <mergeCell ref="H34:H36"/>
     <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
     <mergeCell ref="E52:E54"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C50:C54"/>
     <mergeCell ref="E55:E58"/>
     <mergeCell ref="E59:E62"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E44"/>
     <mergeCell ref="E45:E49"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>

--- a/topic-files/Manual_Topic_Evaluation.xlsx
+++ b/topic-files/Manual_Topic_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creon/Desktop/UIUC/CS410/Team Project/CourseProject/topic-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABreyals\CourseProject\topic-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBD0A5-F79E-4A48-8D5D-6B9B504C16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC0CD3B-F5A5-4B5D-B1B8-8740CEB567FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45980" windowHeight="25360" activeTab="1" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>Topic</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Projects ultimately selected from: https://github.com/CS410Assignments/CourseProject/network/members</t>
+  </si>
+  <si>
+    <t>4 (topic model)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,85 +575,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,29 +983,29 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -1011,64 +1020,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E96CE-B931-4949-8E91-1560B9070820}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="33" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
       <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1079,20 +1088,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="21">
         <v>14</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -1101,40 +1110,42 @@
       <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14">
+      <c r="I3" s="21">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -1143,42 +1154,44 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="23">
+        <v>2</v>
+      </c>
       <c r="J5" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13">
+      <c r="C7" s="9"/>
+      <c r="D7" s="32">
         <v>36</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
@@ -1187,65 +1200,67 @@
       <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="13">
         <v>4</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
+      <c r="I7" s="21">
+        <v>3</v>
+      </c>
+      <c r="J7" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="29" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
@@ -1254,52 +1269,54 @@
       <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="23">
+        <v>1</v>
+      </c>
       <c r="J11" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="30"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
       <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13">
+      <c r="C14" s="9"/>
+      <c r="D14" s="32">
         <v>18</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F14" t="s">
@@ -1308,68 +1325,70 @@
       <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="13">
         <v>4</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14">
+      <c r="I14" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="J14" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="30"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="18"/>
       <c r="F15" t="s">
         <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="18"/>
       <c r="F16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="29" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F18" t="s">
@@ -1378,76 +1397,80 @@
       <c r="G18" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="23">
+        <v>4</v>
+      </c>
       <c r="J18" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="31"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="13">
+      <c r="C20" s="9"/>
+      <c r="D20" s="32">
         <v>30</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="13">
         <v>1</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="29" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F22" t="s">
@@ -1456,52 +1479,54 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="15">
         <v>2</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="J22" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="30"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="18"/>
       <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="13">
+      <c r="C25" s="9"/>
+      <c r="D25" s="32">
         <v>16</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F25" t="s">
@@ -1510,152 +1535,158 @@
       <c r="G25" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="13">
         <v>2</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
+      <c r="I25" s="21">
+        <v>2</v>
+      </c>
+      <c r="J25" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="18"/>
       <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="32"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="29" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="17" t="s">
         <v>60</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="15">
         <v>1</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="23">
+        <v>1</v>
+      </c>
       <c r="J28" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="30"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="18"/>
       <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="32">
         <v>136</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="13">
         <v>1</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14">
+      <c r="I31" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="J31" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="18"/>
       <c r="F32" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="29" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F34" t="s">
@@ -1664,52 +1695,54 @@
       <c r="G34" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="15">
         <v>2</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="23">
+        <v>2</v>
+      </c>
       <c r="J34" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="30"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="18"/>
       <c r="F35" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="31"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="H36" s="16"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="13">
+      <c r="C37" s="9"/>
+      <c r="D37" s="32">
         <v>9</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F37" t="s">
@@ -1718,53 +1751,55 @@
       <c r="G37" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="13">
         <v>3</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14">
+      <c r="I37" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="J37" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="30"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="18"/>
       <c r="F38" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="32"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
       <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="29" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F40" t="s">
@@ -1773,92 +1808,96 @@
       <c r="G40" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="15">
         <v>4</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="23">
+        <v>4</v>
+      </c>
       <c r="J40" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="30"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="18"/>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="31"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="H42" s="16"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="13">
+      <c r="C43" s="9"/>
+      <c r="D43" s="32">
         <v>25</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="18" t="s">
         <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="13">
         <v>1</v>
       </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
+      <c r="I43" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="J43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="32"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="29" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F45" t="s">
@@ -1867,76 +1906,78 @@
       <c r="G45" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="15">
         <v>4</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="23">
+        <v>4</v>
+      </c>
       <c r="J45" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="30"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="18"/>
       <c r="F46" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="30"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="18"/>
       <c r="F47" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="30"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="18"/>
       <c r="F48" t="s">
         <v>80</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="31"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="6" t="s">
         <v>91</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="H49" s="16"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="13">
+      <c r="C50" s="9"/>
+      <c r="D50" s="32">
         <v>79</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="18" t="s">
         <v>96</v>
       </c>
       <c r="F50" t="s">
@@ -1945,91 +1986,95 @@
       <c r="G50" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="13">
         <v>4</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14">
+      <c r="I50" s="21">
+        <v>4</v>
+      </c>
+      <c r="J50" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
       <c r="B51" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="32"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="29" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="15">
         <v>1</v>
       </c>
-      <c r="I52" s="23"/>
+      <c r="I52" s="23">
+        <v>1</v>
+      </c>
       <c r="J52" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="30"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="18"/>
       <c r="F53" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="31"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="29">
         <v>55</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F55" t="s">
@@ -2038,146 +2083,182 @@
       <c r="G55" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="13">
         <v>4</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14">
+      <c r="I55" s="21">
+        <v>5</v>
+      </c>
+      <c r="J55" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="30"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="18"/>
       <c r="F56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
       <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="30"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="18"/>
       <c r="F57" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
       <c r="B58" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="32"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="33" t="s">
+      <c r="H58" s="14"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="37" t="s">
         <v>107</v>
       </c>
       <c r="F59" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="13">
         <v>5</v>
       </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16">
+      <c r="I59" s="29">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="33"/>
+      <c r="J59" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="37"/>
       <c r="F60" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="33"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="37"/>
       <c r="F61" t="s">
         <v>76</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="33"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="37"/>
       <c r="F62" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
     <mergeCell ref="H59:H62"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -2202,68 +2283,36 @@
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>

--- a/topic-files/Manual_Topic_Evaluation.xlsx
+++ b/topic-files/Manual_Topic_Evaluation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABreyals\CourseProject\topic-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktuoh\Documents\School\MCS-DS\CS_410_Text_Info_Systems\Project\CourseProject\topic-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC0CD3B-F5A5-4B5D-B1B8-8740CEB567FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D5859-C4AF-4E08-B88F-9AEE4CFCF804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
+    <workbookView xWindow="3600" yWindow="270" windowWidth="23145" windowHeight="14535" activeTab="2" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
-    <sheet name="Manual Topic Evaluation" sheetId="1" r:id="rId2"/>
+    <sheet name="Round 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Round 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="227">
   <si>
     <t>Topic</t>
   </si>
@@ -376,9 +377,6 @@
     <t>This document takes discovered topics and tags for CS 410 projects and compares them to the "ground truth" topics for matching example projects.</t>
   </si>
   <si>
-    <t>Please rate how closely the discovered topics/tags match the ground-truth topics for these projects.</t>
-  </si>
-  <si>
     <t>Discovered topics, tags, and matching CS 410 projects taken from: https://github.com/kreonjr/CourseProject/tree/main/python/text_mining/AlgOutput.tsv</t>
   </si>
   <si>
@@ -386,13 +384,346 @@
   </si>
   <si>
     <t>4 (topic model)</t>
+  </si>
+  <si>
+    <t>['model', 'aspect', 'lara', 'aspect_rating', 'lrr', 'rating', 'step', 'wang', 'function', 'hongning_wang']</t>
+  </si>
+  <si>
+    <t>The topic includes the name of an author of the paper being reproduced: Hongning Wang</t>
+  </si>
+  <si>
+    <t>model, aspect, lara, aspect_rating, lrr, rating, wang, hongning_wang</t>
+  </si>
+  <si>
+    <t>https://github.com/rosed2/CourseProject</t>
+  </si>
+  <si>
+    <t>['model', 'bert', 'text', 'text_classification', 'competition', 'prediction', 'context', 'classification', 'response', 'score']</t>
+  </si>
+  <si>
+    <t>Overlaps with the dedicated Twitter sarcasm-detection topic.</t>
+  </si>
+  <si>
+    <t>bert, text_classification, competition, classification</t>
+  </si>
+  <si>
+    <t>Competition-centered projects</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>['model', 'bias', 'complete', 'bert', 'text', 'time', 'label', 'accuracy', 'sentence', 'corpus']</t>
+  </si>
+  <si>
+    <t>Model bias and accuracy</t>
+  </si>
+  <si>
+    <t>time, sentence</t>
+  </si>
+  <si>
+    <t>(documentation discusses time savings for "time" tag)</t>
+  </si>
+  <si>
+    <t>Possible time-series analysis</t>
+  </si>
+  <si>
+    <t>https://github.com/VAkarsh20/CS410CourseProject</t>
+  </si>
+  <si>
+    <t>Chrome extension</t>
+  </si>
+  <si>
+    <t>Movie ratings</t>
+  </si>
+  <si>
+    <t>['model', 'collection', 'document', 'text', 'common', 'mining', 'topic', 'cluster', 'context', 'two']</t>
+  </si>
+  <si>
+    <t>Document collection</t>
+  </si>
+  <si>
+    <t>Topic modeling</t>
+  </si>
+  <si>
+    <t>Contextual text analysis</t>
+  </si>
+  <si>
+    <t>model, collection, document, text, common</t>
+  </si>
+  <si>
+    <t>['model', 'document', 'bert', 'score', 'text', 'parameter', 'tensorflow_ranking', 'context', 'prediction', 'ranking']</t>
+  </si>
+  <si>
+    <t>Document ranking</t>
+  </si>
+  <si>
+    <t>https://github.com/codylw2/CourseProject</t>
+  </si>
+  <si>
+    <t>model, document, bert, score, text, parameter, tensorflow_ranking, context, prediction, ranking</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>https://github.com/icyguy64/CourseProject</t>
+  </si>
+  <si>
+    <t>model, bert, score, context, prediction</t>
+  </si>
+  <si>
+    <t>['model', 'url', 'topic', 'document', 'faculty', 'system', 'information', 'text', 'search', 'classifier']</t>
+  </si>
+  <si>
+    <t>model, text, classifier</t>
+  </si>
+  <si>
+    <t>Faculty homepages</t>
+  </si>
+  <si>
+    <t>https://github.com/EsportsNoEyes/CourseProject</t>
+  </si>
+  <si>
+    <t>text, classifier</t>
+  </si>
+  <si>
+    <t>['movie', 'topic', 'model', 'text', 'search', 'library', 'content', 'information', 'recommendation', 'document']</t>
+  </si>
+  <si>
+    <t>topic, model, text, search, library, content, recommendation, document</t>
+  </si>
+  <si>
+    <t>Movie recommendations</t>
+  </si>
+  <si>
+    <t>topic, model, text, search, information</t>
+  </si>
+  <si>
+    <t>['pattern', 'frequent_pattern', 'context', 'context_unit', 'transaction', 'term', 'model', 'given', 'mining', 'algorithm']</t>
+  </si>
+  <si>
+    <t>Frequent-pattern mining</t>
+  </si>
+  <si>
+    <t>https://github.com/armhoeft/CS410Fall2020-CourseProject</t>
+  </si>
+  <si>
+    <t>Docker container</t>
+  </si>
+  <si>
+    <t>pattern, frequent_pattern, context, mining</t>
+  </si>
+  <si>
+    <t>['search', 'app', 'elasticsearch', 'metapy', 'application', 'reflection', 'engine', 'folder', 'repo', 'created']</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>https://github.com/acscharf/CourseProject</t>
+  </si>
+  <si>
+    <t>app, application, reflection</t>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+  </si>
+  <si>
+    <t>Classify useful / not useful course reflections</t>
+  </si>
+  <si>
+    <t>https://github.com/nadiawoodninja/CourseProject</t>
+  </si>
+  <si>
+    <t>search, app, elasticsearch, application, engine, folder</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Sensor data</t>
+  </si>
+  <si>
+    <t>['sentiment', 'sentiment_analysis', 'twitter', 'stock', 'api', 'text', 'topic', 'model', 'analysis', 'time']</t>
+  </si>
+  <si>
+    <t>api, text, model, analysis</t>
+  </si>
+  <si>
+    <t>"time" in context of reduction in reading time</t>
+  </si>
+  <si>
+    <t>sentiment, sentiment_analysis, stock, api, text</t>
+  </si>
+  <si>
+    <t>['system', 'topic', 'search', 'lecture', 'text', 'current', 'video', 'may', 'add', 'model']</t>
+  </si>
+  <si>
+    <t>Topic search</t>
+  </si>
+  <si>
+    <t>https://github.com/PSUlion16/CourseProject</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Course lectures</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>https://github.com/andrewson3107/CourseProject</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Web scraping</t>
+  </si>
+  <si>
+    <t>Job salary and interview information</t>
+  </si>
+  <si>
+    <t>['text', 'topic', 'algorithm', 'lecture', 'search', 'score', 'product', 'implement', 'system', 'information']</t>
+  </si>
+  <si>
+    <t>https://github.com/JiajunWuEdu/CourseProject</t>
+  </si>
+  <si>
+    <t>text, lecture, score</t>
+  </si>
+  <si>
+    <t>Classroom instruction/interaction types</t>
+  </si>
+  <si>
+    <t>https://github.com/VoidGoat/CourseProject-CS-410</t>
+  </si>
+  <si>
+    <t>text, algorithm, search, implement</t>
+  </si>
+  <si>
+    <t>Fuzzy search</t>
+  </si>
+  <si>
+    <t>['topic', 'algorithm', 'model', 'classifier', 'document', 'text', 'note', 'patient', 'edu', 'created']</t>
+  </si>
+  <si>
+    <t>https://github.com/kn13-kiran</t>
+  </si>
+  <si>
+    <t>classifier, text</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Identify restaurant menus</t>
+  </si>
+  <si>
+    <t>Medical/patient data</t>
+  </si>
+  <si>
+    <t>https://github.com/n3a9/CourseProject</t>
+  </si>
+  <si>
+    <t>algorithm, model, classifier, text</t>
+  </si>
+  <si>
+    <t>['topic', 'text', 'model', 'extension', 'search', 'document', 'algorithm', 'relevant', 'time', 'chrome_extension']</t>
+  </si>
+  <si>
+    <t>https://github.com/Ben-Sutter/IntelligentBrowsingPaulBen</t>
+  </si>
+  <si>
+    <t>text, extension, search, document, algorithm, chrome_extension</t>
+  </si>
+  <si>
+    <t>Concept search</t>
+  </si>
+  <si>
+    <t>Synonym matching</t>
+  </si>
+  <si>
+    <t>Text mining</t>
+  </si>
+  <si>
+    <t>https://github.com/shiyao3/CourseProject</t>
+  </si>
+  <si>
+    <t>text, extension, search, algorithm, relevant, chrome_extension</t>
+  </si>
+  <si>
+    <t>['topic', 'time_series', 'text', 'model', 'prior', 'topic_modeling', 'document', 'algorithm', 'function', 'causal_topic']</t>
+  </si>
+  <si>
+    <t>text, document, algorithm</t>
+  </si>
+  <si>
+    <t>Priors</t>
+  </si>
+  <si>
+    <t>topic, time_series, text, model, prior, topic_modeling, algorithm, causal_topic</t>
+  </si>
+  <si>
+    <t>Causal topic mining</t>
+  </si>
+  <si>
+    <t>['twitter_sarcasm', 'twitter', 'model', 'evaluation', 'bert', 'testing', 'context', 'response', 'text', 'sentiment']</t>
+  </si>
+  <si>
+    <t>This should be the main topic for many Twitter sarcasm-detection projects, but it is not. It may have relatively low coverage (&lt; 0.5) on some documents for which it is the main topic.</t>
+  </si>
+  <si>
+    <t>https://github.com/skuretski/CourseProject</t>
+  </si>
+  <si>
+    <t>model, evaluation, text, sentiment</t>
+  </si>
+  <si>
+    <t>Optical character recognition</t>
+  </si>
+  <si>
+    <t>Reddit memes</t>
+  </si>
+  <si>
+    <t>Original project topic: sentiment analysis</t>
+  </si>
+  <si>
+    <t>https://github.com/zen030/CourseProject</t>
+  </si>
+  <si>
+    <t>twitter_sarcasm, twitter, model, evaluation, bert, testing, context, response, text, sentiment</t>
+  </si>
+  <si>
+    <t>Topic Thunder team members manually rate how well each topic and its tags fit the projects.</t>
+  </si>
+  <si>
+    <t>Each topic is the one with highest coverage for its example projects.</t>
+  </si>
+  <si>
+    <t>Manual Topic Evaluation, Round 1</t>
+  </si>
+  <si>
+    <t>Evaluate how well CS 410 project documents match a 10-topic model.</t>
+  </si>
+  <si>
+    <t>Manual Topic Evaluation, Round 2</t>
+  </si>
+  <si>
+    <t>Evaluate how well CS 410 project documents match a 16-topic model. This newer model includes bigrams and excludes more high-usage indiscriminative words such as "project" and "report".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +755,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -439,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -554,12 +901,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +969,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -587,10 +1006,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -599,28 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -635,33 +1063,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -977,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4783DB-5303-4013-8423-12F42A10DF39}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,17 +1431,22 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1018,11 +1457,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E96CE-B931-4949-8E91-1560B9070820}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1038,1303 +1475,3457 @@
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="3" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="3" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="4" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D6" s="18">
         <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I6" s="18">
         <v>2</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J6" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s">
+    <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="2" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="17" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I8" s="32">
         <v>2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J8" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="6" t="s">
+    <row r="9" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="32">
+      <c r="C10" s="21"/>
+      <c r="D10" s="17">
         <v>36</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H10" s="36">
         <v>4</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I10" s="18">
         <v>3</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J10" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="18"/>
-      <c r="F8" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="25"/>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18"/>
-      <c r="F9" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="25"/>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="2" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="17" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H14" s="37">
         <v>2</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I14" s="32">
         <v>1</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J14" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18"/>
-      <c r="F12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="25"/>
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="6" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="32">
+      <c r="C17" s="21"/>
+      <c r="D17" s="17">
         <v>18</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H17" s="36">
         <v>4</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I17" s="18">
         <v>4</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J17" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="18"/>
-      <c r="F15" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="25"/>
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" t="s">
+      <c r="H18" s="36"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
-      <c r="F16" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="25"/>
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s">
+      <c r="H19" s="36"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="2" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H21" s="37">
         <v>3</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I21" s="32">
         <v>4</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J21" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="6" t="s">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="32">
+      <c r="C23" s="21"/>
+      <c r="D23" s="17">
         <v>30</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H23" s="36">
         <v>1</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I23" s="34">
         <v>1</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J23" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" t="s">
+    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="2" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="17" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H25" s="37">
         <v>2</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="23">
+      <c r="I25" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="18"/>
-      <c r="F23" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="25"/>
+      <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="6" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="32">
+      <c r="C28" s="21"/>
+      <c r="D28" s="17">
         <v>16</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E28" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G28" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H28" s="36">
         <v>2</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I28" s="18">
         <v>2</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J28" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="18"/>
-      <c r="F26" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="25"/>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" t="s">
+      <c r="H29" s="36"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="17" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H31" s="37">
         <v>1</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I31" s="32">
         <v>1</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J31" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="18"/>
-      <c r="F29" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="25"/>
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="6" t="s">
+      <c r="H32" s="36"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D34" s="17">
         <v>136</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E34" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H34" s="36">
         <v>1</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I34" s="18">
         <v>1</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J34" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="18"/>
-      <c r="F32" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="25"/>
+      <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" t="s">
+      <c r="H35" s="36"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="17" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G37" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H37" s="37">
         <v>2</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I37" s="32">
         <v>2</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J37" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="18"/>
-      <c r="F35" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="25"/>
+      <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="6" t="s">
+      <c r="H38" s="36"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="32">
+      <c r="C40" s="21"/>
+      <c r="D40" s="17">
         <v>9</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E40" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F40" t="s">
         <v>39</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H40" s="36">
         <v>3</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I40" s="18">
         <v>4</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J40" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="18"/>
-      <c r="F38" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="25"/>
+      <c r="F41" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" t="s">
+      <c r="H41" s="36"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="2" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="17" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>83</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H43" s="37">
         <v>4</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I43" s="32">
         <v>4</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J43" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="18"/>
-      <c r="F41" t="s">
+      <c r="C44" s="22"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="25"/>
+      <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="6" t="s">
+      <c r="H44" s="36"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="32">
+      <c r="C46" s="21"/>
+      <c r="D46" s="17">
         <v>25</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E46" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F46" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H46" s="36">
         <v>1</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I46" s="18">
         <v>1</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J46" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="2" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="17" t="s">
+      <c r="C48" s="22"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G48" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H48" s="37">
         <v>4</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I48" s="32">
         <v>4</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J48" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="18"/>
-      <c r="F46" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="25"/>
+      <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="18"/>
-      <c r="F47" t="s">
+      <c r="H49" s="36"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="25"/>
+      <c r="F50" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="18"/>
-      <c r="F48" t="s">
+      <c r="H50" s="36"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="25"/>
+      <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="6" t="s">
+      <c r="H51" s="36"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="G52" s="7"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="32">
+      <c r="C53" s="21"/>
+      <c r="D53" s="17">
         <v>79</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E53" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>39</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G53" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H53" s="36">
         <v>4</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I53" s="18">
         <v>4</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J53" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="2" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="17" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H55" s="37">
         <v>1</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I55" s="32">
         <v>1</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J55" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="18"/>
-      <c r="F53" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="25"/>
+      <c r="F56" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="6" t="s">
+      <c r="H56" s="36"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C58" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D58" s="20">
         <v>55</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E58" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F58" t="s">
         <v>74</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G58" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H58" s="36">
         <v>4</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I58" s="18">
         <v>5</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J58" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="18"/>
-      <c r="F56" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="25"/>
+      <c r="F59" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" t="s">
+      <c r="H59" s="36"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="18"/>
-      <c r="F57" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="25"/>
+      <c r="F60" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" t="s">
+      <c r="H60" s="36"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="2" t="s">
+      <c r="C61" s="24"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="37" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F62" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H62" s="36">
         <v>5</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I62" s="20">
         <v>5</v>
       </c>
-      <c r="J59" s="29">
+      <c r="J62" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="37"/>
-      <c r="F60" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="27"/>
+      <c r="F63" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="37"/>
-      <c r="F61" t="s">
+      <c r="H63" s="36"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="27"/>
+      <c r="F64" t="s">
         <v>76</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="37"/>
-      <c r="F62" t="s">
+      <c r="H64" s="36"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="27"/>
+      <c r="F65" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H61"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="H31:H33"/>
     <mergeCell ref="H34:H36"/>
     <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A52"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>
-    <hyperlink ref="E43" r:id="rId2" xr:uid="{33A668B2-93DC-4D96-9AEB-8CC4723E0AA2}"/>
-    <hyperlink ref="E59" r:id="rId3" xr:uid="{CE54DF03-47CC-477C-8F28-3406726C49AE}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{D8BC0EA9-C7D8-43C3-B3D7-F9636EB4DE4A}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{65DEFA8F-6701-4027-B39B-AAA7071E2698}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{9B31F480-84ED-417E-ADAA-27F094EB08B2}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{0EB9EDE8-097B-4BC1-8239-36C644FEB7D6}"/>
-    <hyperlink ref="E20" r:id="rId8" xr:uid="{AF191651-11C8-47EB-89F9-35CFC0CA03B6}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{35F6A951-4359-4404-8A7A-B1163FBAD98C}"/>
-    <hyperlink ref="E25" r:id="rId10" xr:uid="{B5B6E062-7BB5-4AE6-B3C7-2F30D607F9FE}"/>
-    <hyperlink ref="E28" r:id="rId11" xr:uid="{BD0A7489-39C8-4B13-B61E-38BC37CECA90}"/>
-    <hyperlink ref="E31" r:id="rId12" xr:uid="{EF645337-26CA-4DB6-B0AC-7931DB993032}"/>
-    <hyperlink ref="E34" r:id="rId13" xr:uid="{329FC1AE-2F42-4A5B-AD87-2337E356D3C3}"/>
-    <hyperlink ref="E37" r:id="rId14" xr:uid="{7E99CC54-D75E-4363-98D1-C65FC7FE751F}"/>
-    <hyperlink ref="E40" r:id="rId15" xr:uid="{CC7965C8-232B-4A0E-B737-71C8A661D724}"/>
-    <hyperlink ref="E45" r:id="rId16" xr:uid="{D011B71F-6F5F-4CB5-BE7C-F117D91BF47A}"/>
-    <hyperlink ref="E50" r:id="rId17" xr:uid="{AADBA1E9-CAB1-4312-808E-77728F17AAB2}"/>
-    <hyperlink ref="E52" r:id="rId18" xr:uid="{E936ADBD-DB92-4171-A365-F6CDE64C9E50}"/>
-    <hyperlink ref="E55" r:id="rId19" xr:uid="{CB96A09B-FCF4-40F0-B992-F6886FE5C8F7}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>
+    <hyperlink ref="E46" r:id="rId2" xr:uid="{33A668B2-93DC-4D96-9AEB-8CC4723E0AA2}"/>
+    <hyperlink ref="E62" r:id="rId3" xr:uid="{CE54DF03-47CC-477C-8F28-3406726C49AE}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{D8BC0EA9-C7D8-43C3-B3D7-F9636EB4DE4A}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{65DEFA8F-6701-4027-B39B-AAA7071E2698}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{9B31F480-84ED-417E-ADAA-27F094EB08B2}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{0EB9EDE8-097B-4BC1-8239-36C644FEB7D6}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{AF191651-11C8-47EB-89F9-35CFC0CA03B6}"/>
+    <hyperlink ref="E25" r:id="rId9" xr:uid="{35F6A951-4359-4404-8A7A-B1163FBAD98C}"/>
+    <hyperlink ref="E28" r:id="rId10" xr:uid="{B5B6E062-7BB5-4AE6-B3C7-2F30D607F9FE}"/>
+    <hyperlink ref="E31" r:id="rId11" xr:uid="{BD0A7489-39C8-4B13-B61E-38BC37CECA90}"/>
+    <hyperlink ref="E34" r:id="rId12" xr:uid="{EF645337-26CA-4DB6-B0AC-7931DB993032}"/>
+    <hyperlink ref="E37" r:id="rId13" xr:uid="{329FC1AE-2F42-4A5B-AD87-2337E356D3C3}"/>
+    <hyperlink ref="E40" r:id="rId14" xr:uid="{7E99CC54-D75E-4363-98D1-C65FC7FE751F}"/>
+    <hyperlink ref="E43" r:id="rId15" xr:uid="{CC7965C8-232B-4A0E-B737-71C8A661D724}"/>
+    <hyperlink ref="E48" r:id="rId16" xr:uid="{D011B71F-6F5F-4CB5-BE7C-F117D91BF47A}"/>
+    <hyperlink ref="E53" r:id="rId17" xr:uid="{AADBA1E9-CAB1-4312-808E-77728F17AAB2}"/>
+    <hyperlink ref="E55" r:id="rId18" xr:uid="{E936ADBD-DB92-4171-A365-F6CDE64C9E50}"/>
+    <hyperlink ref="E58" r:id="rId19" xr:uid="{CB96A09B-FCF4-40F0-B992-F6886FE5C8F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA72B2-0B31-41E1-9081-1D9EB73B8D9E}">
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="20">
+        <v>9</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="40">
+        <v>5</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="42">
+        <v>5</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="17">
+        <v>56</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="36">
+        <v>4</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="25"/>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="37">
+        <v>4</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="27"/>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="27"/>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17">
+        <v>10</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="50">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="25"/>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27"/>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="27"/>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="17">
+        <v>15</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="36">
+        <v>2</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="25"/>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="37">
+        <v>3</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="17">
+        <v>2</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="50">
+        <v>4</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="25"/>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="25"/>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="37">
+        <v>3</v>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="25"/>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="25"/>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="25"/>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="17">
+        <v>51</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="50">
+        <v>2</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="37">
+        <v>2</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="25"/>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="25"/>
+      <c r="F43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="25"/>
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="36"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="17">
+        <v>17</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="36">
+        <v>4</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="37">
+        <v>2</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="25"/>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="36"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="17">
+        <v>8</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="36">
+        <v>1</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="27"/>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="36"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="37">
+        <v>4</v>
+      </c>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="25"/>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="36"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="25"/>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="36"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="17">
+        <v>6</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="36">
+        <v>2</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="37">
+        <v>3</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="25"/>
+      <c r="F61" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="36"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="17">
+        <v>64</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" s="36">
+        <v>2</v>
+      </c>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="27"/>
+      <c r="F64" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64" s="36"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66" s="37">
+        <v>4</v>
+      </c>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="27"/>
+      <c r="F67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="36"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="17">
+        <v>21</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" s="50">
+        <v>1</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="25"/>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" s="36"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>181</v>
+      </c>
+      <c r="H72" s="37">
+        <v>1</v>
+      </c>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="27"/>
+      <c r="F73" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="36"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="27"/>
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74" s="36"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="17">
+        <v>11</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
+        <v>186</v>
+      </c>
+      <c r="H76" s="50">
+        <v>2</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78" s="37">
+        <v>3</v>
+      </c>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="27"/>
+      <c r="F79" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="36"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="27"/>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="36"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="17">
+        <v>8</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82" t="s">
+        <v>193</v>
+      </c>
+      <c r="H82" s="50">
+        <v>3</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="27"/>
+      <c r="F83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" s="36"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="37">
+        <v>3</v>
+      </c>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="27"/>
+      <c r="F86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" s="36"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="27"/>
+      <c r="F87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" s="36"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="27"/>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="36"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="17">
+        <v>74</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" t="s">
+        <v>66</v>
+      </c>
+      <c r="G90" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90" s="50">
+        <v>4</v>
+      </c>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="20"/>
+      <c r="F91" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="45"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="20"/>
+      <c r="F92" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="45"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="20"/>
+      <c r="F93" t="s">
+        <v>203</v>
+      </c>
+      <c r="G93" s="45"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="24"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G94" s="46"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="24"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G95" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" s="36">
+        <v>4</v>
+      </c>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24"/>
+      <c r="D96" s="20"/>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="45"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24"/>
+      <c r="D97" s="20"/>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="45"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G98" s="48"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="17">
+        <v>61</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" s="50">
+        <v>2</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="25"/>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="36"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="25"/>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="36"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" s="37">
+        <v>5</v>
+      </c>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="25"/>
+      <c r="F104" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104" s="24"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="25"/>
+      <c r="F105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G105" s="24"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="25"/>
+      <c r="F106" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" s="24"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="23"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" s="23"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" s="17">
+        <v>5</v>
+      </c>
+      <c r="E108" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>215</v>
+      </c>
+      <c r="H108" s="50">
+        <v>2</v>
+      </c>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="27"/>
+      <c r="F109" t="s">
+        <v>216</v>
+      </c>
+      <c r="H109" s="36"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="27"/>
+      <c r="F110" t="s">
+        <v>217</v>
+      </c>
+      <c r="H110" s="36"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F112" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="H112" s="37">
+        <v>5</v>
+      </c>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="27"/>
+      <c r="F113" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" s="24"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="27"/>
+      <c r="F114" t="s">
+        <v>76</v>
+      </c>
+      <c r="G114" s="24"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="27"/>
+      <c r="F115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="24"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="187">
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="I103:I107"/>
+    <mergeCell ref="J103:J107"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="C99:C107"/>
+    <mergeCell ref="D99:D107"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="D90:D98"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E39" r:id="rId1" xr:uid="{1E28AD26-DCA3-4E64-8BC1-183762531A99}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{91D7AEFD-F48D-4F40-BEA7-400458C731C0}"/>
+    <hyperlink ref="E54" r:id="rId3" xr:uid="{F57AF5E0-59B2-4805-8CF4-59EAE86E9481}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{35BE872C-DE1F-4EC3-9764-D263A755B014}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{F0CA44E7-327F-411B-8E0A-8C1E9FD038EF}"/>
+    <hyperlink ref="E103" r:id="rId6" xr:uid="{14F033E1-B769-4BCF-A322-B775C31EFC63}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{7FB56E2B-950F-41E3-8B34-65388B986E9D}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{440BBDAA-71A4-44CD-8333-BBD31138911D}"/>
+    <hyperlink ref="E99" r:id="rId9" xr:uid="{31F83B6A-6B7E-4503-ABD8-9414FA45C78E}"/>
+    <hyperlink ref="E46" r:id="rId10" xr:uid="{31BB20D5-9D5F-4CA1-BDFF-FCAF87BB992E}"/>
+    <hyperlink ref="E48" r:id="rId11" xr:uid="{6B472C6E-3836-4215-9B56-6277692A711A}"/>
+    <hyperlink ref="E63" r:id="rId12" xr:uid="{B9F3E27D-C3CA-4142-B376-95A4ADDB45E3}"/>
+    <hyperlink ref="E66" r:id="rId13" xr:uid="{2ACF884E-703A-45FA-8F65-F0D5B4F4A1AF}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{00EAE131-19E8-4BB2-B042-395D3CB9C909}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{23C2E70A-C584-4520-8F57-60B736FB46FF}"/>
+    <hyperlink ref="E34" r:id="rId16" xr:uid="{08FCDE4A-9D22-4061-B8EB-C5FB641E476C}"/>
+    <hyperlink ref="E41" r:id="rId17" xr:uid="{0BC21194-392E-4473-A438-538C66D96F8A}"/>
+    <hyperlink ref="E51" r:id="rId18" xr:uid="{8AC4FECF-4707-4718-B6C5-C70AB9ABFD4F}"/>
+    <hyperlink ref="E58" r:id="rId19" xr:uid="{1B5D6634-F1BC-4B66-A708-C68CEDB37AA6}"/>
+    <hyperlink ref="E60" r:id="rId20" xr:uid="{15C62509-CD73-4BDC-A8EC-D60B524D5A27}"/>
+    <hyperlink ref="E69" r:id="rId21" xr:uid="{62B76CB4-7BDB-42E1-8009-B8A56E98CD9F}"/>
+    <hyperlink ref="E72" r:id="rId22" xr:uid="{0389FEE6-AB1D-42D1-B44B-0D9EC929A515}"/>
+    <hyperlink ref="E76" r:id="rId23" xr:uid="{15F45B72-6CAB-4BF4-9AB4-C7BFAA067FBD}"/>
+    <hyperlink ref="E78" r:id="rId24" xr:uid="{1A68FFAA-6494-46D8-95D5-D20E91A98EFB}"/>
+    <hyperlink ref="E82" r:id="rId25" xr:uid="{0529D9FF-619D-4B23-8232-70F312EA7CC1}"/>
+    <hyperlink ref="E85" r:id="rId26" xr:uid="{41763B7B-63F7-4F22-AAAB-BD87DC9E6DC2}"/>
+    <hyperlink ref="E90" r:id="rId27" xr:uid="{2567505F-EB76-4816-8961-0E1252842C0F}"/>
+    <hyperlink ref="E95" r:id="rId28" xr:uid="{E7A11829-E99D-4FDC-8BC9-4F53ED58A528}"/>
+    <hyperlink ref="E108" r:id="rId29" xr:uid="{53DC9726-C083-4F77-AB57-7918643A20FC}"/>
+    <hyperlink ref="E112" r:id="rId30" xr:uid="{675C82F8-5FAE-4855-9196-4C5E81F06A1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
+</worksheet>
 </file>
--- a/topic-files/Manual_Topic_Evaluation.xlsx
+++ b/topic-files/Manual_Topic_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktuoh\Documents\School\MCS-DS\CS_410_Text_Info_Systems\Project\CourseProject\topic-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABreyals\CourseProject\topic-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D5859-C4AF-4E08-B88F-9AEE4CFCF804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE30B39-2CF2-4AD2-BD51-2E8EB40DF0AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="270" windowWidth="23145" windowHeight="14535" activeTab="2" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -976,24 +976,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1006,40 +991,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,7 +1003,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1063,8 +1039,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1078,24 +1090,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1459,7 +1459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E96CE-B931-4949-8E91-1560B9070820}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1476,55 +1478,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="15" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="42" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1536,16 +1538,16 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="28">
         <v>14</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -1557,42 +1559,42 @@
       <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="28">
         <v>2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="28" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
@@ -1601,41 +1603,41 @@
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="30">
         <v>2</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="17">
+      <c r="C10" s="16"/>
+      <c r="D10" s="39">
         <v>36</v>
       </c>
       <c r="E10" s="25" t="s">
@@ -1647,67 +1649,67 @@
       <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="20">
         <v>4</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="28">
         <v>3</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="25"/>
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="25"/>
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="28" t="s">
+      <c r="A14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
@@ -1716,51 +1718,51 @@
       <c r="G14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="22">
         <v>2</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="30">
         <v>1</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="25"/>
       <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="29"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="17">
+      <c r="C17" s="16"/>
+      <c r="D17" s="39">
         <v>18</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -1772,23 +1774,23 @@
       <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="20">
         <v>4</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="28">
         <v>4</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="17"/>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="25"/>
       <c r="F18" t="s">
         <v>33</v>
@@ -1796,46 +1798,46 @@
       <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="25"/>
       <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="28" t="s">
+      <c r="A21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
@@ -1844,41 +1846,41 @@
       <c r="G21" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="22">
         <v>3</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="30">
         <v>4</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="29"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="17">
+      <c r="C23" s="16"/>
+      <c r="D23" s="39">
         <v>30</v>
       </c>
       <c r="E23" s="25" t="s">
@@ -1887,37 +1889,37 @@
       <c r="F23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="20">
         <v>1</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="40">
         <v>1</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="17"/>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="28" t="s">
+      <c r="A25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F25" t="s">
@@ -1926,51 +1928,51 @@
       <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="22">
         <v>2</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="25"/>
       <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="29"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="17">
+      <c r="C28" s="16"/>
+      <c r="D28" s="39">
         <v>16</v>
       </c>
       <c r="E28" s="25" t="s">
@@ -1982,104 +1984,104 @@
       <c r="G28" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="20">
         <v>2</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="28">
         <v>2</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="25"/>
       <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="28" t="s">
+      <c r="A31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="24" t="s">
         <v>60</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="22">
         <v>1</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="30">
         <v>1</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="25"/>
       <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="29"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="39">
         <v>136</v>
       </c>
       <c r="E34" s="25" t="s">
@@ -2088,52 +2090,52 @@
       <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="20">
         <v>1</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="28">
         <v>1</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="25"/>
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="26"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="28" t="s">
+      <c r="A37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F37" t="s">
@@ -2142,51 +2144,51 @@
       <c r="G37" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="22">
         <v>2</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="30">
         <v>2</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="25"/>
       <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="29"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="17">
+      <c r="C40" s="16"/>
+      <c r="D40" s="39">
         <v>9</v>
       </c>
       <c r="E40" s="25" t="s">
@@ -2198,55 +2200,55 @@
       <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="20">
         <v>3</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="28">
         <v>4</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="17"/>
       <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="25"/>
       <c r="F41" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="17"/>
       <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="26"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="17"/>
       <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="28" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="24" t="s">
         <v>82</v>
       </c>
       <c r="F43" t="s">
@@ -2255,54 +2257,54 @@
       <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="22">
         <v>4</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="30">
         <v>4</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="17"/>
       <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="25"/>
       <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="29"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="17">
+      <c r="C46" s="16"/>
+      <c r="D46" s="39">
         <v>25</v>
       </c>
       <c r="E46" s="25" t="s">
@@ -2311,40 +2313,40 @@
       <c r="F46" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="20">
         <v>1</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="28">
         <v>1</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="17"/>
       <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="26"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="17"/>
       <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="28" t="s">
+      <c r="C48" s="17"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F48" t="s">
@@ -2353,75 +2355,75 @@
       <c r="G48" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="22">
         <v>4</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="30">
         <v>4</v>
       </c>
-      <c r="J48" s="32">
+      <c r="J48" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="18"/>
+      <c r="A49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="25"/>
       <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="25"/>
       <c r="F50" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="36"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="18"/>
+      <c r="A51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="25"/>
       <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="29"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="6" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="17">
+      <c r="C53" s="16"/>
+      <c r="D53" s="39">
         <v>79</v>
       </c>
       <c r="E53" s="25" t="s">
@@ -2433,92 +2435,92 @@
       <c r="G53" t="s">
         <v>98</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="20">
         <v>4</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="28">
         <v>4</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="17"/>
       <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="26"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="17"/>
       <c r="B55" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="28" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="22">
         <v>1</v>
       </c>
-      <c r="I55" s="32">
+      <c r="I55" s="30">
         <v>1</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J55" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="25"/>
       <c r="F56" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="29"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="36">
         <v>55</v>
       </c>
       <c r="E58" s="25" t="s">
@@ -2530,150 +2532,182 @@
       <c r="G58" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="20">
         <v>4</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="28">
         <v>5</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="19"/>
       <c r="B59" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="25"/>
       <c r="F59" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="19"/>
       <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="20"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="25"/>
       <c r="F60" t="s">
         <v>76</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="19"/>
       <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="27" t="s">
+      <c r="A62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="46" t="s">
         <v>107</v>
       </c>
       <c r="F62" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="20">
         <v>5</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="36">
         <v>5</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="27"/>
+      <c r="A63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="46"/>
       <c r="F63" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="27"/>
+      <c r="A64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="46"/>
       <c r="F64" t="s">
         <v>76</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="27"/>
+      <c r="A65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="46"/>
       <c r="F65" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
     <mergeCell ref="H62:H65"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -2698,68 +2732,36 @@
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="J48:J52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>
@@ -2781,6 +2783,7 @@
     <hyperlink ref="E53" r:id="rId17" xr:uid="{AADBA1E9-CAB1-4312-808E-77728F17AAB2}"/>
     <hyperlink ref="E55" r:id="rId18" xr:uid="{E936ADBD-DB92-4171-A365-F6CDE64C9E50}"/>
     <hyperlink ref="E58" r:id="rId19" xr:uid="{CB96A09B-FCF4-40F0-B992-F6886FE5C8F7}"/>
+    <hyperlink ref="E6" r:id="rId20" xr:uid="{34307692-3D66-4572-86B3-CC903BF3561D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2790,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA72B2-0B31-41E1-9081-1D9EB73B8D9E}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,55 +2812,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="42" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2869,93 +2872,97 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="36">
         <v>9</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="32">
         <v>5</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="36">
+        <v>5</v>
+      </c>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="28" t="s">
+      <c r="A8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="24" t="s">
         <v>119</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="34">
         <v>5</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="I8" s="30">
+        <v>5</v>
+      </c>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="39">
         <v>56</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>104</v>
       </c>
       <c r="F10" t="s">
@@ -2964,60 +2971,62 @@
       <c r="G10" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="20">
         <v>4</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="36">
+        <v>5</v>
+      </c>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="25"/>
       <c r="F11" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="25"/>
       <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="28" t="s">
+      <c r="A14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="24" t="s">
         <v>107</v>
       </c>
       <c r="F14" t="s">
@@ -3026,62 +3035,64 @@
       <c r="G14" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="22">
         <v>4</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="30">
+        <v>5</v>
+      </c>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="46"/>
       <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="46"/>
       <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="17">
+      <c r="C18" s="16"/>
+      <c r="D18" s="39">
         <v>10</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="47" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
@@ -3090,19 +3101,21 @@
       <c r="G18" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="48">
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="25"/>
       <c r="F19" t="s">
         <v>24</v>
@@ -3110,142 +3123,146 @@
       <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="28" t="s">
+      <c r="A21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="22">
         <v>1</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="I21" s="30">
+        <v>1</v>
+      </c>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="46"/>
       <c r="F22" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="27"/>
+      <c r="A23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="46"/>
       <c r="F23" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="29"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="17">
+      <c r="C25" s="16"/>
+      <c r="D25" s="39">
         <v>15</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="47" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="20">
         <v>2</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="55">
+        <v>1</v>
+      </c>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="25"/>
       <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="36"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="33"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="28" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
@@ -3254,108 +3271,112 @@
       <c r="G28" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="22">
         <v>3</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
+      <c r="I28" s="30">
+        <v>5</v>
+      </c>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="17">
+      <c r="C30" s="16"/>
+      <c r="D30" s="39">
         <v>2</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="47" t="s">
         <v>140</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="48">
         <v>4</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="I30" s="39">
+        <v>4</v>
+      </c>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="19"/>
       <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="25"/>
       <c r="F31" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="25"/>
       <c r="F32" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="26"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="28" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="24" t="s">
         <v>144</v>
       </c>
       <c r="F34" t="s">
@@ -3364,71 +3385,73 @@
       <c r="G34" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="22">
         <v>3</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+      <c r="I34" s="30">
+        <v>4</v>
+      </c>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="25"/>
       <c r="F35" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="25"/>
       <c r="F36" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="25"/>
       <c r="F37" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="29"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="17">
+      <c r="C39" s="16"/>
+      <c r="D39" s="39">
         <v>51</v>
       </c>
       <c r="E39" s="25" t="s">
@@ -3440,36 +3463,38 @@
       <c r="G39" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="48">
         <v>2</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="I39" s="39">
+        <v>3</v>
+      </c>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="A40" s="19"/>
       <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="26"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="19"/>
       <c r="B41" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="28" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="24" t="s">
         <v>149</v>
       </c>
       <c r="F41" t="s">
@@ -3478,115 +3503,119 @@
       <c r="G41" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="22">
         <v>2</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
+      <c r="I41" s="30">
+        <v>3</v>
+      </c>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="19"/>
       <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="25"/>
       <c r="F42" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="25"/>
       <c r="F43" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="25"/>
       <c r="F44" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="29"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="16" t="s">
         <v>151</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="17">
+      <c r="C46" s="16"/>
+      <c r="D46" s="39">
         <v>17</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F46" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="20">
         <v>4</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="36">
+        <v>5</v>
+      </c>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+      <c r="A47" s="19"/>
       <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="26"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="A48" s="19"/>
       <c r="B48" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="28" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F48" t="s">
@@ -3595,97 +3624,101 @@
       <c r="G48" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="22">
         <v>2</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
+      <c r="I48" s="30">
+        <v>1</v>
+      </c>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="19"/>
       <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="25"/>
       <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="29"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="16" t="s">
         <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="17">
+      <c r="C51" s="16"/>
+      <c r="D51" s="39">
         <v>8</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="47" t="s">
         <v>157</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="20">
         <v>1</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="I51" s="36">
+        <v>1</v>
+      </c>
+      <c r="J51" s="36"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+      <c r="A52" s="19"/>
       <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="27"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="46"/>
       <c r="F52" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="28" t="s">
+      <c r="A54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F54" t="s">
@@ -3694,59 +3727,61 @@
       <c r="G54" t="s">
         <v>159</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="22">
         <v>4</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="I54" s="30">
+        <v>4</v>
+      </c>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="25"/>
       <c r="F55" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="20"/>
+      <c r="A56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="25"/>
       <c r="F56" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="29"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="17">
+      <c r="C58" s="16"/>
+      <c r="D58" s="39">
         <v>6</v>
       </c>
       <c r="E58" s="25" t="s">
@@ -3758,36 +3793,38 @@
       <c r="G58" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="20">
         <v>2</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="I58" s="36">
+        <v>2</v>
+      </c>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="19"/>
       <c r="B59" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="26"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="19"/>
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="28" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="24" t="s">
         <v>166</v>
       </c>
       <c r="F60" t="s">
@@ -3796,53 +3833,55 @@
       <c r="G60" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="37">
+      <c r="H60" s="22">
         <v>3</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
+      <c r="I60" s="30">
+        <v>5</v>
+      </c>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="19"/>
       <c r="B61" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="20"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="25"/>
       <c r="F61" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="29"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="17">
+      <c r="C63" s="16"/>
+      <c r="D63" s="39">
         <v>64</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="47" t="s">
         <v>60</v>
       </c>
       <c r="F63" t="s">
@@ -3851,54 +3890,56 @@
       <c r="G63" t="s">
         <v>171</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="20">
         <v>2</v>
       </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="I63" s="36">
+        <v>2</v>
+      </c>
+      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
+      <c r="A64" s="19"/>
       <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="27"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="46"/>
       <c r="F64" t="s">
         <v>65</v>
       </c>
       <c r="G64" t="s">
         <v>172</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
+      <c r="A65" s="19"/>
       <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="26"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
+      <c r="A66" s="19"/>
       <c r="B66" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="28" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F66" t="s">
@@ -3907,50 +3948,52 @@
       <c r="G66" t="s">
         <v>173</v>
       </c>
-      <c r="H66" s="37">
+      <c r="H66" s="22">
         <v>4</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
+      <c r="I66" s="30">
+        <v>5</v>
+      </c>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="27"/>
+      <c r="A67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="46"/>
       <c r="F67" t="s">
         <v>79</v>
       </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="29"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="17">
+      <c r="C69" s="16"/>
+      <c r="D69" s="39">
         <v>21</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="47" t="s">
         <v>176</v>
       </c>
       <c r="F69" t="s">
@@ -3959,51 +4002,53 @@
       <c r="G69" t="s">
         <v>177</v>
       </c>
-      <c r="H69" s="50">
+      <c r="H69" s="48">
         <v>1</v>
       </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="I69" s="39">
+        <v>1</v>
+      </c>
+      <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+      <c r="A70" s="19"/>
       <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="20"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="25"/>
       <c r="F70" t="s">
         <v>74</v>
       </c>
-      <c r="H70" s="36"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="19"/>
       <c r="B71" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="26"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+      <c r="A72" s="19"/>
       <c r="B72" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="28" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="24" t="s">
         <v>180</v>
       </c>
       <c r="F72" t="s">
@@ -4012,62 +4057,64 @@
       <c r="G72" t="s">
         <v>181</v>
       </c>
-      <c r="H72" s="37">
+      <c r="H72" s="22">
         <v>1</v>
       </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
+      <c r="I72" s="30">
+        <v>2</v>
+      </c>
+      <c r="J72" s="30"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="27"/>
+      <c r="A73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="46"/>
       <c r="F73" t="s">
         <v>131</v>
       </c>
-      <c r="H73" s="36"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="27"/>
+      <c r="A74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="46"/>
       <c r="F74" t="s">
         <v>182</v>
       </c>
-      <c r="H74" s="36"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="29"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="17">
+      <c r="C76" s="16"/>
+      <c r="D76" s="39">
         <v>11</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F76" t="s">
@@ -4076,36 +4123,38 @@
       <c r="G76" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="50">
+      <c r="H76" s="48">
         <v>2</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="I76" s="39">
+        <v>1</v>
+      </c>
+      <c r="J76" s="39"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
+      <c r="A77" s="19"/>
       <c r="B77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="26"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
+      <c r="A78" s="19"/>
       <c r="B78" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="28" t="s">
+      <c r="C78" s="19"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="24" t="s">
         <v>188</v>
       </c>
       <c r="F78" t="s">
@@ -4114,65 +4163,67 @@
       <c r="G78" t="s">
         <v>189</v>
       </c>
-      <c r="H78" s="37">
+      <c r="H78" s="22">
         <v>3</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="I78" s="30">
+        <v>2</v>
+      </c>
+      <c r="J78" s="30"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
+      <c r="A79" s="19"/>
       <c r="B79" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="27"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="46"/>
       <c r="F79" t="s">
         <v>131</v>
       </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="27"/>
+      <c r="A80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="46"/>
       <c r="F80" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="29"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="26"/>
       <c r="F81" s="6" t="s">
         <v>190</v>
       </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="17">
+      <c r="C82" s="16"/>
+      <c r="D82" s="39">
         <v>8</v>
       </c>
-      <c r="E82" s="49" t="s">
+      <c r="E82" s="47" t="s">
         <v>192</v>
       </c>
       <c r="F82" t="s">
@@ -4181,51 +4232,53 @@
       <c r="G82" t="s">
         <v>193</v>
       </c>
-      <c r="H82" s="50">
+      <c r="H82" s="48">
         <v>3</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
+      <c r="I82" s="39">
+        <v>2</v>
+      </c>
+      <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
+      <c r="A83" s="19"/>
       <c r="B83" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="27"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="46"/>
       <c r="F83" t="s">
         <v>74</v>
       </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
+      <c r="A84" s="19"/>
       <c r="B84" t="s">
         <v>194</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="26"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
+      <c r="A85" s="19"/>
       <c r="B85" t="s">
         <v>196</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="28" t="s">
+      <c r="C85" s="19"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="24" t="s">
         <v>197</v>
       </c>
       <c r="F85" t="s">
@@ -4234,61 +4287,63 @@
       <c r="G85" t="s">
         <v>198</v>
       </c>
-      <c r="H85" s="37">
+      <c r="H85" s="22">
         <v>3</v>
       </c>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
+      <c r="I85" s="30">
+        <v>1</v>
+      </c>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="27"/>
+      <c r="A86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="46"/>
       <c r="F86" t="s">
         <v>74</v>
       </c>
-      <c r="H86" s="36"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="27"/>
+      <c r="A87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="46"/>
       <c r="F87" t="s">
         <v>76</v>
       </c>
-      <c r="H87" s="36"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="27"/>
+      <c r="A88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="46"/>
       <c r="F88" t="s">
         <v>22</v>
       </c>
-      <c r="H88" s="36"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="29"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="26"/>
       <c r="F89" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G89" s="6"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
@@ -4297,148 +4352,152 @@
       <c r="B90" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="17">
+      <c r="C90" s="16"/>
+      <c r="D90" s="39">
         <v>74</v>
       </c>
-      <c r="E90" s="53" t="s">
+      <c r="E90" s="13" t="s">
         <v>200</v>
       </c>
       <c r="F90" t="s">
         <v>66</v>
       </c>
-      <c r="G90" s="52" t="s">
+      <c r="G90" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="H90" s="50">
+      <c r="H90" s="48">
         <v>4</v>
       </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
+      <c r="I90" s="39">
+        <v>4</v>
+      </c>
+      <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="20"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="36"/>
       <c r="F91" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="45"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="20"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="36"/>
       <c r="F92" t="s">
         <v>202</v>
       </c>
-      <c r="G92" s="45"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="20"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="36"/>
       <c r="F93" t="s">
         <v>203</v>
       </c>
-      <c r="G93" s="45"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24"/>
-      <c r="D94" s="20"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G94" s="46"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="24"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="53" t="s">
+      <c r="C95" s="19"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="13" t="s">
         <v>205</v>
       </c>
       <c r="F95" t="s">
         <v>66</v>
       </c>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H95" s="36">
+      <c r="H95" s="20">
         <v>4</v>
       </c>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+      <c r="I95" s="36">
+        <v>4</v>
+      </c>
+      <c r="J95" s="36"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24"/>
-      <c r="D96" s="20"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="36"/>
       <c r="F96" t="s">
         <v>131</v>
       </c>
-      <c r="G96" s="45"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24"/>
-      <c r="D97" s="20"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="36"/>
       <c r="F97" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="45"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="19"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="31"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="48"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B99" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="21"/>
-      <c r="D99" s="17">
+      <c r="C99" s="16"/>
+      <c r="D99" s="39">
         <v>61</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F99" t="s">
@@ -4447,144 +4506,148 @@
       <c r="G99" t="s">
         <v>208</v>
       </c>
-      <c r="H99" s="50">
+      <c r="H99" s="48">
         <v>2</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="I99" s="39">
+        <v>1</v>
+      </c>
+      <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
+      <c r="A100" s="19"/>
       <c r="B100" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="20"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="25"/>
       <c r="F100" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="36"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="24"/>
+      <c r="A101" s="19"/>
       <c r="B101" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="20"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="25"/>
       <c r="F101" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="36"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
+      <c r="A102" s="19"/>
       <c r="B102" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="26"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="28" t="s">
+      <c r="A103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="54" t="s">
+      <c r="G103" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="H103" s="37">
+      <c r="H103" s="22">
         <v>5</v>
       </c>
-      <c r="I103" s="32"/>
-      <c r="J103" s="32"/>
+      <c r="I103" s="30">
+        <v>5</v>
+      </c>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="20"/>
+      <c r="A104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="25"/>
       <c r="F104" t="s">
         <v>211</v>
       </c>
-      <c r="G104" s="24"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="20"/>
+      <c r="A105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="25"/>
       <c r="F105" t="s">
         <v>90</v>
       </c>
-      <c r="G105" s="24"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="20"/>
+      <c r="A106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="25"/>
       <c r="F106" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="24"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="29"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="26"/>
       <c r="F107" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="16" t="s">
         <v>212</v>
       </c>
       <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="39">
         <v>5</v>
       </c>
-      <c r="E108" s="49" t="s">
+      <c r="E108" s="47" t="s">
         <v>214</v>
       </c>
       <c r="F108" t="s">
@@ -4593,286 +4656,128 @@
       <c r="G108" t="s">
         <v>215</v>
       </c>
-      <c r="H108" s="50">
+      <c r="H108" s="48">
         <v>2</v>
       </c>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
+      <c r="I108" s="39">
+        <v>5</v>
+      </c>
+      <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
+      <c r="A109" s="19"/>
       <c r="B109" t="s">
         <v>76</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="27"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="46"/>
       <c r="F109" t="s">
         <v>216</v>
       </c>
-      <c r="H109" s="36"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
+      <c r="A110" s="19"/>
       <c r="B110" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="27"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="46"/>
       <c r="F110" t="s">
         <v>217</v>
       </c>
-      <c r="H110" s="36"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="24"/>
+      <c r="A111" s="19"/>
       <c r="B111" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="26"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="27"/>
       <c r="F111" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="28" t="s">
+      <c r="A112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="24" t="s">
         <v>219</v>
       </c>
       <c r="F112" t="s">
         <v>103</v>
       </c>
-      <c r="G112" s="54" t="s">
+      <c r="G112" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="H112" s="37">
+      <c r="H112" s="22">
         <v>5</v>
       </c>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
+      <c r="I112" s="30">
+        <v>5</v>
+      </c>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="27"/>
+      <c r="A113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="46"/>
       <c r="F113" t="s">
         <v>74</v>
       </c>
-      <c r="G113" s="24"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="27"/>
+      <c r="A114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="46"/>
       <c r="F114" t="s">
         <v>76</v>
       </c>
-      <c r="G114" s="24"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="27"/>
+      <c r="A115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="46"/>
       <c r="F115" t="s">
         <v>22</v>
       </c>
-      <c r="G115" s="24"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="187">
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="J112:J115"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="H103:H107"/>
-    <mergeCell ref="I103:I107"/>
-    <mergeCell ref="J103:J107"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="C99:C107"/>
-    <mergeCell ref="D99:D107"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="C90:C98"/>
-    <mergeCell ref="D90:D98"/>
-    <mergeCell ref="G90:G94"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="I90:I94"/>
-    <mergeCell ref="J90:J94"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="J41:J45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="E8:E9"/>
@@ -4886,12 +4791,174 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="D90:D98"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="I103:I107"/>
+    <mergeCell ref="J103:J107"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="C99:C107"/>
+    <mergeCell ref="D99:D107"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{1E28AD26-DCA3-4E64-8BC1-183762531A99}"/>
@@ -4924,8 +4991,10 @@
     <hyperlink ref="E95" r:id="rId28" xr:uid="{E7A11829-E99D-4FDC-8BC9-4F53ED58A528}"/>
     <hyperlink ref="E108" r:id="rId29" xr:uid="{53DC9726-C083-4F77-AB57-7918643A20FC}"/>
     <hyperlink ref="E112" r:id="rId30" xr:uid="{675C82F8-5FAE-4855-9196-4C5E81F06A1D}"/>
+    <hyperlink ref="E25" r:id="rId31" xr:uid="{3F37E77A-4928-4DDA-B240-82BC20E269BB}"/>
+    <hyperlink ref="E28" r:id="rId32" xr:uid="{D4C37731-497C-4CFF-9EA4-40F1CE0A2F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/topic-files/Manual_Topic_Evaluation.xlsx
+++ b/topic-files/Manual_Topic_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SABreyals\CourseProject\topic-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creon/Desktop/UIUC/CS410/Team Project/CourseProject/topic-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE30B39-2CF2-4AD2-BD51-2E8EB40DF0AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84132F6C-C249-EB40-8E2F-C97FFB2652DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26560" activeTab="2" xr2:uid="{78298D7E-DD7A-4237-BADD-8FAFD49C0CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -979,6 +979,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -991,10 +1009,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1003,28 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,43 +1066,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1084,17 +1081,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1417,34 +1417,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1460,73 +1460,73 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1537,20 +1537,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="21">
         <v>14</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
@@ -1559,42 +1559,42 @@
       <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="21">
         <v>2</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
@@ -1603,44 +1603,44 @@
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="35">
         <v>2</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="39">
+      <c r="C10" s="24"/>
+      <c r="D10" s="20">
         <v>36</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="28" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
@@ -1649,67 +1649,67 @@
       <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="39">
         <v>4</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="21">
         <v>3</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="28"/>
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="28"/>
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="24" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
@@ -1718,54 +1718,54 @@
       <c r="G14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="40">
         <v>2</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="35">
         <v>1</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="28"/>
       <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="39">
+      <c r="C17" s="24"/>
+      <c r="D17" s="20">
         <v>18</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="28" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
@@ -1774,70 +1774,70 @@
       <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="39">
         <v>4</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="21">
         <v>4</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="28"/>
       <c r="F18" t="s">
         <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="28"/>
       <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="24" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
@@ -1846,80 +1846,80 @@
       <c r="G21" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="40">
         <v>3</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="35">
         <v>4</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="39">
+      <c r="C23" s="24"/>
+      <c r="D23" s="20">
         <v>30</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="28" t="s">
         <v>43</v>
       </c>
       <c r="F23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="39">
         <v>1</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="37">
         <v>1</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="24" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F25" t="s">
@@ -1928,54 +1928,54 @@
       <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="40">
         <v>2</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="25"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="28"/>
       <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="39">
+      <c r="C28" s="24"/>
+      <c r="D28" s="20">
         <v>16</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="28" t="s">
         <v>56</v>
       </c>
       <c r="F28" t="s">
@@ -1984,158 +1984,158 @@
       <c r="G28" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="39">
         <v>2</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="21">
         <v>2</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="28"/>
       <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
       <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="24" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="31" t="s">
         <v>60</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="40">
         <v>1</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="35">
         <v>1</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="25"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="28"/>
       <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="H33" s="41"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="20">
         <v>136</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="39">
         <v>1</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="21">
         <v>1</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="28"/>
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
       <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="24" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F37" t="s">
@@ -2144,54 +2144,54 @@
       <c r="G37" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="40">
         <v>2</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="35">
         <v>2</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="25"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="28"/>
       <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="H39" s="41"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="39">
+      <c r="C40" s="24"/>
+      <c r="D40" s="20">
         <v>9</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="28" t="s">
         <v>77</v>
       </c>
       <c r="F40" t="s">
@@ -2200,55 +2200,55 @@
       <c r="G40" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="39">
         <v>3</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="21">
         <v>4</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
       <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="28"/>
       <c r="F41" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
       <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
       <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="24" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F43" t="s">
@@ -2257,96 +2257,96 @@
       <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="40">
         <v>4</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="35">
         <v>4</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
       <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="28"/>
       <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="H45" s="41"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="39">
+      <c r="C46" s="24"/>
+      <c r="D46" s="20">
         <v>25</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F46" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="39">
         <v>1</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="21">
         <v>1</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
       <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="27"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
       <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="24" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F48" t="s">
@@ -2355,78 +2355,78 @@
       <c r="G48" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="40">
         <v>4</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="35">
         <v>4</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="25"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="28"/>
       <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="25"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="28"/>
       <c r="F50" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="25"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="28"/>
       <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="6" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="H52" s="41"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="39">
+      <c r="C53" s="24"/>
+      <c r="D53" s="20">
         <v>79</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="28" t="s">
         <v>96</v>
       </c>
       <c r="F53" t="s">
@@ -2435,95 +2435,95 @@
       <c r="G53" t="s">
         <v>98</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="39">
         <v>4</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="21">
         <v>4</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
       <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="27"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="25"/>
       <c r="B55" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="24" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="31" t="s">
         <v>99</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="40">
         <v>1</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="35">
         <v>1</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="25"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="28"/>
       <c r="F56" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="H57" s="41"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="23">
         <v>55</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="28" t="s">
         <v>104</v>
       </c>
       <c r="F58" t="s">
@@ -2532,120 +2532,212 @@
       <c r="G58" t="s">
         <v>105</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="39">
         <v>4</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="21">
         <v>5</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
       <c r="B59" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="28"/>
       <c r="F59" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
       <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="28"/>
       <c r="F60" t="s">
         <v>76</v>
       </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
       <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="46" t="s">
+      <c r="H61" s="42"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F62" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="39">
         <v>5</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="23">
         <v>5</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="46"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="30"/>
       <c r="F63" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="46"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="30"/>
       <c r="F64" t="s">
         <v>76</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="46"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="30"/>
       <c r="F65" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="E55:E57"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -2670,98 +2762,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A46:A52"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="J48:J52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{DF6C5B22-B422-410A-B22A-3B4DEF6A512C}"/>
@@ -2793,74 +2793,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA72B2-0B31-41E1-9081-1D9EB73B8D9E}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112:J115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="48.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
       <c r="B5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="42"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2871,98 +2871,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>9</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="43">
         <v>5</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="23">
         <v>5</v>
       </c>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="27"/>
+      <c r="J6" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="24" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="31" t="s">
         <v>119</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="45">
         <v>5</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="35">
         <v>5</v>
       </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="J8" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="20">
         <v>56</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="52" t="s">
         <v>104</v>
       </c>
       <c r="F10" t="s">
@@ -2971,62 +2975,64 @@
       <c r="G10" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="39">
         <v>4</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="23">
         <v>5</v>
       </c>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="J10" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="28"/>
       <c r="F11" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="28"/>
       <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="27"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="24" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="31" t="s">
         <v>107</v>
       </c>
       <c r="F14" t="s">
@@ -3035,64 +3041,66 @@
       <c r="G14" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="40">
         <v>4</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="35">
         <v>5</v>
       </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="46"/>
+      <c r="J14" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="30"/>
       <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="46"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="30"/>
       <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="39">
+      <c r="C18" s="24"/>
+      <c r="D18" s="20">
         <v>10</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="52" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
@@ -3101,168 +3109,174 @@
       <c r="G18" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="53">
         <v>1</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="20">
         <v>1</v>
       </c>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="J18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="28"/>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="24" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="31" t="s">
         <v>130</v>
       </c>
       <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="40">
         <v>1</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="35">
         <v>1</v>
       </c>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="46"/>
+      <c r="J21" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="30"/>
       <c r="F22" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="46"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="30"/>
       <c r="F23" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="39">
+      <c r="C25" s="24"/>
+      <c r="D25" s="20">
         <v>15</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="52" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="39">
         <v>2</v>
       </c>
       <c r="I25" s="55">
         <v>1</v>
       </c>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="J25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="28"/>
       <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="55"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="24" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
@@ -3271,112 +3285,116 @@
       <c r="G28" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="40">
         <v>3</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="35">
         <v>5</v>
       </c>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="J28" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="H29" s="41"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="39">
+      <c r="C30" s="24"/>
+      <c r="D30" s="20">
         <v>2</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="52" t="s">
         <v>140</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="53">
         <v>4</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="20">
         <v>4</v>
       </c>
-      <c r="J30" s="39"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="J30" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="28"/>
       <c r="F31" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="25"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="28"/>
       <c r="F32" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
       <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="24" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="31" t="s">
         <v>144</v>
       </c>
       <c r="F34" t="s">
@@ -3385,76 +3403,78 @@
       <c r="G34" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="40">
         <v>3</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="35">
         <v>4</v>
       </c>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="25"/>
+      <c r="J34" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="28"/>
       <c r="F35" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="25"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="28"/>
       <c r="F36" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="25"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="28"/>
       <c r="F37" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="H38" s="41"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="39">
+      <c r="C39" s="24"/>
+      <c r="D39" s="20">
         <v>51</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F39" t="s">
@@ -3463,38 +3483,40 @@
       <c r="G39" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="53">
         <v>2</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="20">
         <v>3</v>
       </c>
-      <c r="J39" s="39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="J39" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
       <c r="B41" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="24" t="s">
+      <c r="C41" s="27"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F41" t="s">
@@ -3503,119 +3525,123 @@
       <c r="G41" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="40">
         <v>2</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="35">
         <v>3</v>
       </c>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="J41" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="28"/>
       <c r="F42" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="25"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="28"/>
       <c r="F43" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="25"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="28"/>
       <c r="F44" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="H45" s="41"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
         <v>151</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="39">
+      <c r="C46" s="24"/>
+      <c r="D46" s="20">
         <v>17</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="52" t="s">
         <v>43</v>
       </c>
       <c r="F46" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="39">
         <v>4</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="23">
         <v>5</v>
       </c>
-      <c r="J46" s="36"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="J46" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
       <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
       <c r="B48" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="24" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F48" t="s">
@@ -3624,101 +3650,105 @@
       <c r="G48" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="40">
         <v>2</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="35">
         <v>1</v>
       </c>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="J48" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
       <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="28"/>
       <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="H50" s="41"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+    </row>
+    <row r="51" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
         <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="39">
+      <c r="C51" s="24"/>
+      <c r="D51" s="20">
         <v>8</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="52" t="s">
         <v>157</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="39">
         <v>1</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="23">
         <v>1</v>
       </c>
-      <c r="J51" s="36"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="J51" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
       <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="46"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="30"/>
       <c r="F52" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="27"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="24" t="s">
+      <c r="H53" s="42"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F54" t="s">
@@ -3727,64 +3757,66 @@
       <c r="G54" t="s">
         <v>159</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="40">
         <v>4</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="35">
         <v>4</v>
       </c>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="25"/>
+      <c r="J54" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="28"/>
       <c r="F55" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="25"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="28"/>
       <c r="F56" t="s">
         <v>32</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="7"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="H57" s="41"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
         <v>160</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="39">
+      <c r="C58" s="24"/>
+      <c r="D58" s="20">
         <v>6</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="28" t="s">
         <v>162</v>
       </c>
       <c r="F58" t="s">
@@ -3793,38 +3825,40 @@
       <c r="G58" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="39">
         <v>2</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="23">
         <v>2</v>
       </c>
-      <c r="J58" s="36"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="J58" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
       <c r="B59" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="24" t="s">
+      <c r="C60" s="27"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F60" t="s">
@@ -3833,55 +3867,57 @@
       <c r="G60" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="40">
         <v>3</v>
       </c>
-      <c r="I60" s="30">
+      <c r="I60" s="35">
         <v>5</v>
       </c>
-      <c r="J60" s="30"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="J60" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
       <c r="B61" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="28"/>
       <c r="F61" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="H62" s="41"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
         <v>170</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="39">
+      <c r="C63" s="24"/>
+      <c r="D63" s="20">
         <v>64</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="52" t="s">
         <v>60</v>
       </c>
       <c r="F63" t="s">
@@ -3890,56 +3926,58 @@
       <c r="G63" t="s">
         <v>171</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="39">
         <v>2</v>
       </c>
-      <c r="I63" s="36">
+      <c r="I63" s="23">
         <v>2</v>
       </c>
-      <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="J63" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
       <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="46"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="30"/>
       <c r="F64" t="s">
         <v>65</v>
       </c>
       <c r="G64" t="s">
         <v>172</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
       <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
       <c r="B66" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="24" t="s">
+      <c r="C66" s="27"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F66" t="s">
@@ -3948,52 +3986,54 @@
       <c r="G66" t="s">
         <v>173</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="40">
         <v>4</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="35">
         <v>5</v>
       </c>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="46"/>
+      <c r="J66" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="30"/>
       <c r="F67" t="s">
         <v>79</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="H68" s="41"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+    </row>
+    <row r="69" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="39">
+      <c r="C69" s="24"/>
+      <c r="D69" s="20">
         <v>21</v>
       </c>
-      <c r="E69" s="47" t="s">
+      <c r="E69" s="52" t="s">
         <v>176</v>
       </c>
       <c r="F69" t="s">
@@ -4002,53 +4042,55 @@
       <c r="G69" t="s">
         <v>177</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H69" s="53">
         <v>1</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="20">
         <v>1</v>
       </c>
-      <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+      <c r="J69" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="27"/>
       <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="28"/>
       <c r="F70" t="s">
         <v>74</v>
       </c>
-      <c r="H70" s="20"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
       <c r="B71" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="27"/>
       <c r="B72" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="24" t="s">
+      <c r="C72" s="27"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="31" t="s">
         <v>180</v>
       </c>
       <c r="F72" t="s">
@@ -4057,64 +4099,66 @@
       <c r="G72" t="s">
         <v>181</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="40">
         <v>1</v>
       </c>
-      <c r="I72" s="30">
+      <c r="I72" s="35">
         <v>2</v>
       </c>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="46"/>
+      <c r="J72" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="30"/>
       <c r="F73" t="s">
         <v>131</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="46"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="30"/>
       <c r="F74" t="s">
         <v>182</v>
       </c>
-      <c r="H74" s="20"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="H75" s="41"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="24" t="s">
         <v>184</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="39">
+      <c r="C76" s="24"/>
+      <c r="D76" s="20">
         <v>11</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F76" t="s">
@@ -4123,38 +4167,40 @@
       <c r="G76" t="s">
         <v>186</v>
       </c>
-      <c r="H76" s="48">
+      <c r="H76" s="53">
         <v>2</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I76" s="20">
         <v>1</v>
       </c>
-      <c r="J76" s="39"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="J76" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
       <c r="B77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="29"/>
       <c r="F77" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
       <c r="B78" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="24" t="s">
+      <c r="C78" s="27"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="31" t="s">
         <v>188</v>
       </c>
       <c r="F78" t="s">
@@ -4163,67 +4209,69 @@
       <c r="G78" t="s">
         <v>189</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="40">
         <v>3</v>
       </c>
-      <c r="I78" s="30">
+      <c r="I78" s="35">
         <v>2</v>
       </c>
-      <c r="J78" s="30"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="J78" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="27"/>
       <c r="B79" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="46"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="30"/>
       <c r="F79" t="s">
         <v>131</v>
       </c>
-      <c r="H79" s="20"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="46"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="30"/>
       <c r="F80" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="20"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="32"/>
       <c r="F81" s="6" t="s">
         <v>190</v>
       </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="H81" s="41"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24" t="s">
         <v>191</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="39">
+      <c r="C82" s="24"/>
+      <c r="D82" s="20">
         <v>8</v>
       </c>
-      <c r="E82" s="47" t="s">
+      <c r="E82" s="52" t="s">
         <v>192</v>
       </c>
       <c r="F82" t="s">
@@ -4232,53 +4280,53 @@
       <c r="G82" t="s">
         <v>193</v>
       </c>
-      <c r="H82" s="48">
+      <c r="H82" s="53">
         <v>3</v>
       </c>
-      <c r="I82" s="39">
+      <c r="I82" s="20">
         <v>2</v>
       </c>
-      <c r="J82" s="39"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="27"/>
       <c r="B83" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="46"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="30"/>
       <c r="F83" t="s">
         <v>74</v>
       </c>
-      <c r="H83" s="20"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="27"/>
       <c r="B84" t="s">
         <v>194</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="29"/>
       <c r="F84" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="27"/>
       <c r="B85" t="s">
         <v>196</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="24" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="31" t="s">
         <v>197</v>
       </c>
       <c r="F85" t="s">
@@ -4287,73 +4335,75 @@
       <c r="G85" t="s">
         <v>198</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="40">
         <v>3</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I85" s="35">
         <v>1</v>
       </c>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="46"/>
+      <c r="J85" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="30"/>
       <c r="F86" t="s">
         <v>74</v>
       </c>
-      <c r="H86" s="20"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="46"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="30"/>
       <c r="F87" t="s">
         <v>76</v>
       </c>
-      <c r="H87" s="20"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="46"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="30"/>
       <c r="F88" t="s">
         <v>22</v>
       </c>
-      <c r="H88" s="20"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+    </row>
+    <row r="89" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G89" s="6"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="41"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="39">
+      <c r="C90" s="24"/>
+      <c r="D90" s="20">
         <v>74</v>
       </c>
       <c r="E90" s="13" t="s">
@@ -4362,142 +4412,146 @@
       <c r="F90" t="s">
         <v>66</v>
       </c>
-      <c r="G90" s="50" t="s">
+      <c r="G90" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H90" s="53">
         <v>4</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="20">
         <v>4</v>
       </c>
-      <c r="J90" s="39"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="36"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="23"/>
       <c r="F91" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="51"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G91" s="50"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="36"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="23"/>
       <c r="F92" t="s">
         <v>202</v>
       </c>
-      <c r="G92" s="51"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G92" s="50"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="36"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="23"/>
       <c r="F93" t="s">
         <v>203</v>
       </c>
-      <c r="G93" s="51"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="19"/>
-      <c r="D94" s="36"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C94" s="27"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G94" s="52"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="19"/>
-      <c r="D95" s="36"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C95" s="27"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="13" t="s">
         <v>205</v>
       </c>
       <c r="F95" t="s">
         <v>66</v>
       </c>
-      <c r="G95" s="53" t="s">
+      <c r="G95" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="39">
         <v>4</v>
       </c>
-      <c r="I95" s="36">
+      <c r="I95" s="23">
         <v>4</v>
       </c>
-      <c r="J95" s="36"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="19"/>
-      <c r="D96" s="36"/>
+      <c r="J95" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C96" s="27"/>
+      <c r="D96" s="23"/>
       <c r="F96" t="s">
         <v>131</v>
       </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="19"/>
-      <c r="D97" s="36"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C97" s="27"/>
+      <c r="D97" s="23"/>
       <c r="F97" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="51"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="50"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+    </row>
+    <row r="98" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="31"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="54"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="G98" s="49"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24" t="s">
         <v>207</v>
       </c>
       <c r="B99" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="39">
+      <c r="C99" s="24"/>
+      <c r="D99" s="20">
         <v>61</v>
       </c>
-      <c r="E99" s="47" t="s">
+      <c r="E99" s="52" t="s">
         <v>23</v>
       </c>
       <c r="F99" t="s">
@@ -4506,148 +4560,152 @@
       <c r="G99" t="s">
         <v>208</v>
       </c>
-      <c r="H99" s="48">
+      <c r="H99" s="53">
         <v>2</v>
       </c>
-      <c r="I99" s="39">
+      <c r="I99" s="20">
         <v>1</v>
       </c>
-      <c r="J99" s="39"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+      <c r="J99" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="27"/>
       <c r="B100" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="25"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="28"/>
       <c r="F100" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="27"/>
       <c r="B101" t="s">
         <v>209</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="28"/>
       <c r="F101" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="20"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
       <c r="B102" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="24" t="s">
+      <c r="H102" s="42"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="49" t="s">
+      <c r="G103" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="H103" s="22">
+      <c r="H103" s="40">
         <v>5</v>
       </c>
-      <c r="I103" s="30">
+      <c r="I103" s="35">
         <v>5</v>
       </c>
-      <c r="J103" s="30"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="25"/>
+      <c r="J103" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="28"/>
       <c r="F104" t="s">
         <v>211</v>
       </c>
-      <c r="G104" s="19"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="25"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="28"/>
       <c r="F105" t="s">
         <v>90</v>
       </c>
-      <c r="G105" s="19"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="25"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="28"/>
       <c r="F106" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="19"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="18"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+    </row>
+    <row r="107" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="32"/>
       <c r="F107" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G107" s="18"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="G107" s="26"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+    </row>
+    <row r="108" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B108" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D108" s="39">
+      <c r="D108" s="20">
         <v>5</v>
       </c>
-      <c r="E108" s="47" t="s">
+      <c r="E108" s="52" t="s">
         <v>214</v>
       </c>
       <c r="F108" t="s">
@@ -4656,122 +4714,294 @@
       <c r="G108" t="s">
         <v>215</v>
       </c>
-      <c r="H108" s="48">
+      <c r="H108" s="53">
         <v>2</v>
       </c>
-      <c r="I108" s="39">
+      <c r="I108" s="20">
         <v>5</v>
       </c>
-      <c r="J108" s="39"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
+      <c r="J108" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="27"/>
       <c r="B109" t="s">
         <v>76</v>
       </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="46"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="30"/>
       <c r="F109" t="s">
         <v>216</v>
       </c>
-      <c r="H109" s="20"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="27"/>
       <c r="B110" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="46"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="30"/>
       <c r="F110" t="s">
         <v>217</v>
       </c>
-      <c r="H110" s="20"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="27"/>
       <c r="B111" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="29"/>
       <c r="F111" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="24" t="s">
+      <c r="H111" s="42"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="31" t="s">
         <v>219</v>
       </c>
       <c r="F112" t="s">
         <v>103</v>
       </c>
-      <c r="G112" s="49" t="s">
+      <c r="G112" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="H112" s="22">
+      <c r="H112" s="40">
         <v>5</v>
       </c>
-      <c r="I112" s="30">
+      <c r="I112" s="35">
         <v>5</v>
       </c>
-      <c r="J112" s="30"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="46"/>
+      <c r="J112" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="30"/>
       <c r="F113" t="s">
         <v>74</v>
       </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="46"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="30"/>
       <c r="F114" t="s">
         <v>76</v>
       </c>
-      <c r="G114" s="19"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="46"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="30"/>
       <c r="F115" t="s">
         <v>22</v>
       </c>
-      <c r="G115" s="19"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="187">
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="J112:J115"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="I103:I107"/>
+    <mergeCell ref="J103:J107"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="C99:C107"/>
+    <mergeCell ref="D99:D107"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="D90:D98"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="C76:C81"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="J72:J75"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H10:H13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -4791,174 +5021,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="J41:J45"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="I72:I75"/>
-    <mergeCell ref="J72:J75"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="C82:C89"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="C90:C98"/>
-    <mergeCell ref="D90:D98"/>
-    <mergeCell ref="G90:G94"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="I90:I94"/>
-    <mergeCell ref="J90:J94"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="H103:H107"/>
-    <mergeCell ref="I103:I107"/>
-    <mergeCell ref="J103:J107"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="C99:C107"/>
-    <mergeCell ref="D99:D107"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="J112:J115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{1E28AD26-DCA3-4E64-8BC1-183762531A99}"/>
